--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/16_Bilecik_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/16_Bilecik_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7FF6CFB-E8E2-489B-B6C3-61926E6028F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE4B766B-4D40-4A67-9BED-6A6C829FB6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="675" xr2:uid="{0537CBB1-4249-4CBD-9881-BFE180A0CE3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{63516CDE-690C-45D2-B6B4-293CFA2FD575}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -992,15 +992,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{37471D47-15B7-4E16-B580-B90BC3B791B7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{416CEE8F-842E-4426-BE4E-8E032F67691F}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F1A1103E-7F10-4B9E-8657-EB6EE4015A2A}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C0D3EF81-DEF5-416D-9938-CCD19C3E2D13}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{0097B32A-AEDF-48DE-A8F9-A966FF3880F6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{956CE944-102B-45BD-91DC-E5C0DF01A4C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{F001FA3E-0033-467F-BF7C-B06FEB0DBB74}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{55663A48-135C-4FC1-9EAD-52A96E0A6B88}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{07D30596-C31D-4930-80CA-1D71F37EEB48}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{55148EF9-7169-4631-98AE-B9008D518A02}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B86F29C3-8170-4E73-A761-D3F8979916EE}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{1A0506BC-2F4C-4F37-B59E-7A7E38EC32EB}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F122D316-6EFF-41EF-80D6-4D111325A268}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{6D239CF5-48BB-4A90-A4C3-9C31A9F76160}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{497DE06F-E464-4DA8-8302-0F29FF6360DE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{8AB479B1-2461-4FE4-B0F3-6B9FCB684AC3}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{FF712E37-7DB2-4C41-BF1D-17FD879CFFAA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{9E78EACD-D573-4D93-8075-A348AFAE2552}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1370,7 +1370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F6530F-FDF9-44F2-9079-2EB0D3D00A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE0E28D-601B-4752-B306-3DA5D9E0627C}">
   <dimension ref="B2:F108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2632,17 +2632,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{395822A0-9937-495B-ACC9-A2A15815FFF0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7A68C4D-47D9-45F5-BD41-5CB983820110}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6918FFA3-0D4E-4DE7-B75A-FFE457A10759}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24F1EFED-DBE9-4689-983E-FC35834828C0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66AC6A78-979B-4FF7-9B0A-5B9B0CB8CC37}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E36FDB8A-CCAF-409F-8E45-48A7C8FC09B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1DBFD0DB-D524-4509-923A-30D0BD889406}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1B5920C-53B5-44AE-8943-A64DE2AF3D1C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2D96EE69-10F6-4C1B-81CC-663DD310554E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6816B757-2177-47C7-A9C4-AD8B7CCA55E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1F56584C-465A-4A64-9400-D95E3E94FF24}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1E0C66F-1886-4B74-AF97-AEAD16024556}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{062FB74F-B704-4DEF-BB7F-F49197B7161A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33E087CA-92CF-418D-9DEC-E78DD2EB3FD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4090B437-ABE5-4D0C-BBBB-933835A28E68}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8629387-DE5C-4543-9DB3-2E5031679348}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B65EFAC-1BB2-41DB-B502-FE6903ACB08F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6891C945-6556-4D9E-967D-0120C2E8B88D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2ABC86C-F1F5-4B3B-9803-C30CF6A75938}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{448D4599-5F12-444B-9D98-831B4A955B4E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E1D9D17D-E540-4BCF-B984-34FFE407E1EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8C8B46A-AE28-403D-8BE1-0939650CA31F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2655,7 +2655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44643B45-3735-4E57-879B-4B557499AA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3D013B-48E1-4D23-904A-9A1A70C038BB}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3891,17 +3891,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D6A1076-06F5-4F45-AE7F-4166F665E299}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7214F581-2009-4554-AA19-0203EED072FE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5EE0CE84-DBD4-46A8-B919-71279E362C5D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84FAB442-61A6-488E-9348-F7532DB4DB2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EEC19E64-B597-4746-BAAE-D6200AC873A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1A30C719-90CF-4B56-BFB4-16A66B81ACE2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F82FD5C4-A86C-48C0-A134-C9BA957173AA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E01DA1B3-8432-4ECB-A4AE-35902EC6A73B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A4229B77-B0F9-415C-AA04-298B1DA20F60}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FCE02EF6-DEC5-4A3C-BC65-E433362EE014}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8162A3E-B75B-4A45-B1EA-A22F853C849D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFFF95D6-74E2-49E5-B44A-C4215A72F741}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{017F0CD1-E2A0-4A86-9A28-F488C757255B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{24B536BB-DFD7-4FE8-B7E8-DC828AD974E1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8316C76-F94B-448F-9ED5-4886830AD8BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36C631EE-6A9F-4583-A397-1AB60C0FA164}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BC55769-1FBD-4DC3-BB0B-9A540345B4C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8C22AEB9-1499-4CED-995F-B33FF193C992}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E43B898-B701-4242-9EA2-A1FDD20A3DF7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E9C5BC29-6DC1-4616-8F25-E2F5B321A179}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BF540000-7B4F-4E22-97FC-BEAC1805B50A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69CE135E-8E77-4F27-AE6B-F1ED880A6FDE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3914,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C32AA9-F385-40F9-833E-FC6979F92192}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6B379F-9AE4-43D5-94D9-E91A51A6FF19}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5150,17 +5150,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AB01CF3-4277-4D26-BAC6-A7340B14B8E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6D449B8-0511-4BC4-8AA4-6AC09CD3928B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4C2D46E8-FDCC-4D73-8FD2-5DD84589A732}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C781911-79A0-427C-B2F8-9446F13B8EAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DB2D77C-1939-45C6-858E-07CDB0EC8188}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06304401-9D5F-4B70-86BE-8298DF5E924D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BBCBB08-ADFF-4AD5-B048-DC95B531F8A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{669EE2A0-1175-4B60-95DF-FDB3DBF3460D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E8EDD4CB-A8E5-44A4-8D80-0031C0D1CC86}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F81C7691-6352-40E8-8B1B-0CC0C940A318}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1DE74A1D-5848-4D9D-8C27-7585AA462F9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F7DEEC4-A0EF-4DA8-B789-F6D95B590E72}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D3D9F7C-83EF-467F-871E-4D8FA07F44DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77236518-EC01-405E-B390-027F269CBB70}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC235C2C-FE90-46F6-A1F8-66647E8B5A79}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8D3D78E-6272-414A-A9BA-D3C7DC6EC3DC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B468E5A-BA5B-4CB3-A9C4-26EE2D413C94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A78B47E-FFC9-4106-AACF-5BC5158A76BA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76A92A64-9C0A-413C-B077-FE3BFD4B64EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EEE084C1-D667-4CCA-8446-61DAEFC7DF7B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E49D2C00-BA18-43E5-B2AB-9B85C0E63E70}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB48702B-4625-4D1B-A389-1603E9174CB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5173,7 +5173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5945B608-880F-49A9-A20A-BAE950245285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C46F73-D40B-42B8-A58A-05666130FFD5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6405,17 +6405,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5993F97F-5F9A-46D7-9D2F-D1390A250C06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFD06F5B-1092-4647-82F0-D39F98755CA7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{913A4F10-638A-4281-9D1E-7E93F100EF96}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B85647C1-9072-4B35-B429-08CA11785EA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0CDA5DDF-09A3-4D2C-B53F-D4E792C0B316}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{783D3E08-CCF4-4B9F-87C4-5BBCB533FED8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45590460-12A6-4BCC-9360-3E6B6F03E3A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3379DC2D-2CE8-4CE7-966D-2F56CD8A3A07}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{58D44387-0BEF-4E27-A116-8CDE869F7EB1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AC92B34E-D0D9-44EA-B908-DCEAB6915663}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B66EC44-F42E-43AD-BDF4-EA84D01DF646}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FFFDE00-DD0F-424E-8CEF-8E65B7DA7207}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F3CCA17-F316-444E-BADC-B252612C055C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C19696F5-3703-410F-BB5C-5FC521DB90E6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D2ABAF8F-662E-4B45-A387-D0FEC5647033}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16BAA0DC-8C08-4C48-A01C-10FACF01F98D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7CA941CC-2983-4F45-A26F-FD4638DAB254}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DA6CF01-E9E6-463D-9717-9DC343357DFB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C61FCE7-12A2-4327-8C3F-4DE73D30F41D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{83D611F0-9365-46B5-8604-EAE1C5BBAC77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F6F3A4DE-E836-44E9-B30B-B626B4668CE6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0285578-A4DC-48E5-BE0C-AB1A7690E1EA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6428,7 +6428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C76BDEA-259C-4642-8794-A6D215ADC7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D83AEE-6566-4329-996F-93D705018834}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7671,17 +7671,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38C57C7E-98C0-493D-9958-772E4F9C083C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F0AF638-A61C-4502-9D82-49B8DAE94E51}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{52B320CC-7410-405B-8931-666EE221865E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6CB8C70C-A106-423F-B858-EA7F77AB027E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE54B8F5-093C-468A-91EF-0D9CF7ED4839}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77CF6B8B-02B1-43BD-87CA-40EBC2B3429B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B60DE572-120D-4211-8A1F-46B637484B14}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FCEF0FEA-E32C-4E7E-9BED-174C2398CD62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{932D9523-6983-49CA-AED4-6FB95A40CBE5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{560ED894-85BE-4F96-A794-D3A62260509B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0F3B001-94CD-4A00-84E7-55018C936E9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{627EA784-4C56-4888-82CA-A9FCC051415B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F00A316-6EBA-493D-B49E-436C1AF2228D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA543FCC-6FA3-4554-866B-985F7B54F394}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{371D1605-C7ED-42E6-9F0F-638854E6E9FC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EA211173-F195-4096-AF79-0A2663850E07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06D63E66-0344-49A4-98A1-848BBC485CD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{00343E59-DD9A-4E55-8DF5-D0E399F23652}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{081A8DF2-91C4-4134-9E29-7356DFA10ED7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{776B0F99-5BC3-482C-A946-9A4768A803F6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FA53ACAA-7154-49A8-9862-668AC13073FE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9EFCEAE1-F1D2-4DD5-9B88-0081C0254E5F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7694,7 +7694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3F8B46-ADE7-4A26-9CD9-E8187D506645}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0698C031-E96A-491E-856D-88CDCF1E1498}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8937,17 +8937,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79AA00DC-1F2F-439C-994A-C85E83663A39}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08241FC3-3897-4BEC-B61D-A244E4C4A058}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1FC19BA6-ADA4-433B-B304-C8E075382D80}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{376A756A-2B8D-4F93-BBE8-2C796794A9E5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{17E53BF6-125D-46C5-9556-9C00C5E73029}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3AF5E26D-2DFE-4E27-AA01-0A61FBA32AAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D8C06AA-0971-4CDD-BF0D-CF28550D9E96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F5D04F9-C478-4336-9A31-C4CA5A77F6F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{7128B350-262F-45E1-B541-7BC9AA1FC99D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{271070B9-77E7-4B6D-8E87-4BFC1319772D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C8BAEA3-2234-47E5-AB78-D15A2FB9AA91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B56EC247-76D0-4F27-AEA3-F37EB75BA628}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{930DFA18-1B42-4D9C-B609-19B9E52A0B5B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D76400D7-6356-46A4-A35C-8C5FF178508F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C836CF2-800A-4E45-A27A-9ADE42F75813}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F652AEBC-474E-4C58-B81B-3CD368F6B7CD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C6F7F25-0070-4260-9106-E2178872E5AB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1A06EFD-C3F5-4F4F-981C-9FE86BDA9B96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9815193C-4024-44B1-87D0-060DB5D1D444}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F98F060B-F5BB-41B5-BA21-D05436C4DA3A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2BCF097C-1556-4742-ABBD-57BCE5610F1A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B6A45297-DB29-4576-8A68-8358B18696C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8960,7 +8960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A6156E-FF05-44BB-98EA-3D8B6279E927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845BB004-0CBB-4B91-A8C6-FF793FC632D3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10203,17 +10203,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BE65DBB-7112-4B05-836F-3B4188434CC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AD2A15C9-779C-46C1-AEAA-C611A5421F08}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{84B07EC7-1805-4B32-B933-8B053AC44210}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4748AFE-FF2A-4B27-9B14-B988D5F11377}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0BEE99FF-FA5A-4A7B-9C98-5202623B88E0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B7D69214-84B0-43F3-8BE7-A214ED3343A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70553406-33BC-4CB7-BE48-7890B369B1F4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F641143-895D-4567-A4FE-D377B077EA5C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AAA8ADEA-6B4C-4BF7-B3EF-0EE00E5A1D80}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C888B665-D06A-454A-A41F-832E09DABCBD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{628A66FD-55E8-49ED-85FB-0CCF32A51346}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{247FA937-0FAA-4F59-94E9-CD9AE93C2CF3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6788150-64BF-4005-91DD-6926601CA367}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5E3D021E-8B80-4920-8A8A-8F89BE42C68D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C7BE0AF8-5409-4747-B895-8686092D10BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2635FFA9-0789-457E-BD5E-99F5A4C622D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D363320-45FF-4374-890F-A2B07231476F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAB52CEB-5B1A-4F17-89DF-836E1AD4110C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA18C55E-0C13-4847-84FB-7EF0E5229728}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{04C2E0C0-5205-461A-A56F-30448FDD7306}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{23447E70-48E7-4E9E-9F4D-61479E74B10C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1A35280-B7BF-4495-BFA1-B7F73EB12C38}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10226,7 +10226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E211EC50-8791-48E1-8997-753E5F4BF60C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B85AB0B-534C-4429-AD82-7D9EA68573C7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11465,17 +11465,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{98433F9E-E66E-419A-9449-7471606E3406}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{895C5E0B-9301-474B-BAAC-C817CDB4F653}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CD6D2D30-EF6F-4459-BB86-0E9ACD814873}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3474253C-42B1-4AFC-9701-2E2168C40A46}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06695CB2-FA81-4259-9E8F-FEB90B57F3B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{806C80BC-29E8-4BB0-8D96-E926253C3D61}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E5464546-E76F-40F9-88FE-077035C3E9B0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39CA30DE-E427-4FC6-B074-D733616F435B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{56036A80-F157-46E7-825E-E636296ED711}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{ECA7D8B0-7F6D-48D4-988F-F3105144BBCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{09A97379-5BA1-416A-A1B0-3102E7847366}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA00444D-4DF5-4E13-AC38-794343202F48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3431564-2103-4169-A07B-9D12410F579E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76230915-C346-42F0-BB5C-1D0AEA813200}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A69C5DF1-313D-40DD-99E2-81738DFF2C6B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2154C093-0035-45E6-8060-93C4960E42D1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B41A0EFE-834D-43CA-BAE5-D8805E7E300C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED9DB412-5EEE-4338-8176-BEC5F736D044}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6532342C-8CD9-4819-BD80-88444A0FF676}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{552ECBB9-973E-4FBE-99F8-27BEBBD0D753}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A1EF465F-A009-445D-8221-AA1B3A4A3F94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29F074FE-CC5F-4486-9806-16E46985F550}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11488,7 +11488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C032D8A5-90DD-4F5B-BACA-E9944215631A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFB171C-A87F-4F57-A8B2-768BBB94007D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12727,17 +12727,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{138C207E-553C-4318-999E-4EE815200E53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CF4D1BDF-BB40-4996-B7AA-AB2BEC881A9E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A6A1CA47-4983-48BB-89B9-E468E4DD59F3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{727602CF-324F-4EBE-8733-159A92F91ADD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37069BE3-165C-4244-8F45-212CCA6973C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{670379BD-D04C-42C2-A0D4-FCE620CC0530}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7645C036-C161-4C96-B8D4-10059C929412}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8B7D409-9C25-4203-B678-D03307BCAECD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EF834CD5-08EB-4CCE-A062-8BBD8BB86CA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13E15282-BD53-4A48-B520-B5FA284D83E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CB5CFCE8-6F51-40A2-98A5-B3380E8A115C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F88F9EC3-5185-42C8-AB79-F0C4D605C571}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7114E9A-0633-4170-AF23-2D3659B9B20B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F10DBAB-09CA-44D7-BF5A-729D72FE3E15}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEEBDE69-AD6A-4FFE-B099-FA61B84884E1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CB8CDE49-649D-4549-A4DA-3767706A83EB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F0A21C7-4F6E-4D4F-A6AD-F753CBB2F1E0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F9C5F85-A1E0-4703-963D-EB3812640A7A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{712EC4AF-B5DF-439F-879F-1813132AF181}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{638393F7-41C3-4531-958B-F9A2A6638902}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14F180C2-F919-457B-8468-AAF8AAFE1888}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA692BF4-8E7E-49BA-A297-EACB8B3ECAD6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12750,7 +12750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D525F-705D-468F-87DA-9980986EE9AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146CBD6-3580-4544-8116-4CE05EF7C080}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13989,17 +13989,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6A2596C3-F6D1-4B75-B36F-CDCA925D70F8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE06E179-F97F-4B19-8E9E-17CEE4F6E828}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4515555F-260C-4F6A-B7D1-872B193BACF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11D2356B-8150-4268-A522-3C3007E5A6A8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5130254E-305A-4056-9AA1-717254ACEC78}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD2700CD-11B4-4CD1-8436-76596579A895}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60862A43-EA58-4F78-9412-670D02595570}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4AF1CCAA-2390-4350-8F1C-B9AA81ED1716}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{199631EF-82DC-4FCD-8AC3-2978E0A88396}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3935E5A5-3368-40F4-8A3A-935CF8F95910}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A2A8CDF-54F3-4BEC-BF9D-BC791E4ED5F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{968BB53F-585D-4623-9867-4014F59C3F23}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2555088C-F6F8-436C-92CE-CFB2F98E10BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CCCCDE77-3990-45BC-A90D-98DE9A560B98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D963398-BD89-4F52-A5E2-4333076A6A1B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{91485D72-BEE4-4D6D-AD49-7801BF4F1E36}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4AA28B88-63F6-4DDA-83B1-4B4EF80FFCE5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BE27C1CC-E746-44F9-A65D-F0B06DDA9277}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6697129E-8754-4525-9F30-4D2960F952E8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{579D6EE7-02CF-41A7-B611-A95E91DE8DF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{733C03A3-466A-4F49-BE55-D94303859BE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2666C8ED-9E13-43B9-B6B5-7596289632E9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14012,7 +14012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E369E1C-526D-47A4-AA6E-B5D55143D2C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3BEAB8-44C9-4731-9B9E-26B3495572DE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15248,17 +15248,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{75D85549-0729-4F6F-BC3C-D92B34971DF3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4850BD18-BC17-441E-A976-86013DEDF861}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DEBDBE13-3751-4BAD-A947-82D264C26A6D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{256A7C76-32B5-490F-BFE3-E838B7B7BAC5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{235D6C8B-BCB8-441E-B013-0444A357F7B0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BFF13EB-6FFA-4447-8B74-FDE32B21FDD5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C246DB9-9D95-4388-BBDB-1715FA295F90}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F662045-C31F-49C8-8F4C-48A2E4ABBA90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5099C960-7317-4D85-B750-5C62C376BC01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7997F283-7D8E-484B-BCE3-6CE8B5BEF1E8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77023505-1399-46EC-9EEE-5D12E77C0768}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A81393F7-911B-4CD7-BAE9-6E67F6095EFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7821D972-D07C-48AE-9E73-5A0A31108786}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9E61731F-0DBC-47CD-AAD9-0E4445255A98}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{22DD4979-C985-453A-A20B-7F3CC22AC42A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC6D245E-5A67-4D8F-80B1-3D2AA69BD04B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1BA70D94-C320-4DEE-A961-7824CB6912C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F3E902E-48B2-44FB-965A-D6BA90E9EDE5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2857E522-504D-4F88-9D4F-ED5846FF1D74}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F855A8FB-B298-444F-933C-D04D931C1D7E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4233AF7F-7985-441E-9683-FDEF34145DEE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB0A37C7-3931-4964-93F6-0BE214EE4CD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15271,7 +15271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70128BA-56CD-443A-9A70-2ECC06D195D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9941905E-5B1A-4563-83C0-BECB2A238977}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16507,17 +16507,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D8CD69BD-7BAF-46AA-AF9E-88C9DEAB58D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7398FC18-8BE7-48DB-B556-DB57B1A05F6A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{897B90D6-A5A5-4D55-B2C5-58A644156855}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2686F6E4-9244-4B0F-83F3-00FA69C5C56A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2DD96771-3CD0-4BF5-B6BF-E2D91A0A5F40}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D35F729-E4BC-400A-9A58-32C666770424}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F419DD7-86F9-4E64-A1C9-FAA7C5D1874C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D16E92B3-81AD-4A2C-A9B1-D1BCCE667047}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AEEAF284-BE61-4125-959D-D09FE3505D9D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{42E8E3D4-3B95-40F0-BA3D-3E55596059B6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AD1611F-8C21-4BA0-ADFB-26840904C222}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18F5404C-A29F-4CC6-8699-3EA8D1EF768C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{82C9A6BF-F989-4E15-85DE-51E36F814756}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EE5E7BC8-7F50-499A-A6F9-9F007CEAE4C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31637B9D-EBF9-4162-AD91-FCC7A60FC826}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E68229CB-AFC2-4156-AFE6-718C8BE04764}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FED695D-801F-4F1A-A9DF-722C060C1C0F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD2EF054-46C2-4E9B-9F26-8F43889D0026}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5BDBC641-05A1-4067-87FA-071873C84B7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25DE1DE2-05AB-4883-80E8-B4D59253A024}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7749B33F-4072-46F3-A821-D4A77EBB3B4F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BB8D82F-A91E-4E3F-BB03-3489C9F4A2FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
